--- a/Feb'2021/14.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/14.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2482,6 +2482,63 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,63 +2549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2605,6 +2605,12 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,6 +2645,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,18 +2697,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3116,67 +3116,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="247"/>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="257"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3185,52 +3185,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="245" t="s">
+      <c r="D4" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="245" t="s">
+      <c r="F4" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="245" t="s">
+      <c r="G4" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="245" t="s">
+      <c r="H4" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="245" t="s">
+      <c r="I4" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="245" t="s">
+      <c r="J4" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="258" t="s">
+      <c r="K4" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="260" t="s">
+      <c r="L4" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="262" t="s">
+      <c r="M4" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="241" t="s">
+      <c r="N4" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="243" t="s">
+      <c r="O4" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="253" t="s">
+      <c r="P4" s="249" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="192" t="s">
@@ -3243,22 +3243,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="250"/>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="259"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="244"/>
-      <c r="P5" s="254"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="255"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="250"/>
       <c r="Q5" s="193" t="s">
         <v>36</v>
       </c>
@@ -6130,6 +6130,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6146,9 +6149,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8158,8 +8158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8368,13 +8368,13 @@
       <c r="C17" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="310"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="282"/>
+      <c r="J17" s="282"/>
+      <c r="K17" s="282"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -8390,13 +8390,13 @@
       <c r="C18" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="310"/>
-      <c r="H18" s="310"/>
-      <c r="I18" s="310"/>
-      <c r="J18" s="310"/>
-      <c r="K18" s="310"/>
+      <c r="E18" s="283"/>
+      <c r="F18" s="283"/>
+      <c r="G18" s="282"/>
+      <c r="H18" s="282"/>
+      <c r="I18" s="282"/>
+      <c r="J18" s="282"/>
+      <c r="K18" s="282"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -8577,7 +8577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8599,25 +8599,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="292"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8642,11 +8642,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="293" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="292"/>
-      <c r="L4" s="293"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="295"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8911,21 +8911,21 @@
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
       <c r="F16" s="23"/>
-      <c r="J16" s="311" t="s">
+      <c r="J16" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="312"/>
+      <c r="K16" s="297"/>
       <c r="L16" s="136">
         <f>SUM(L6:L15)</f>
         <v>18426</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="282"/>
-      <c r="B17" s="283"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="284"/>
+      <c r="A17" s="284"/>
+      <c r="B17" s="285"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="286"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -9065,108 +9065,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
-      <c r="Q1" s="297"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="297"/>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="299"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="300" t="s">
+      <c r="B5" s="305"/>
+      <c r="C5" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="302"/>
-      <c r="P5" s="301"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="306"/>
+      <c r="P5" s="305"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9849,11 +9849,11 @@
       <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="294" t="s">
+      <c r="A28" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="295"/>
-      <c r="C28" s="296"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="300"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10591,12 +10591,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="303" t="s">
+      <c r="B1" s="307" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="305"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="309"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10991,111 +10991,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
-      <c r="Q1" s="297"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="297"/>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="299"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="310" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="307"/>
+      <c r="B5" s="311"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="174"/>
-      <c r="F5" s="302" t="s">
+      <c r="F5" s="306" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="302"/>
-      <c r="P5" s="302"/>
-      <c r="Q5" s="301"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="306"/>
+      <c r="P5" s="306"/>
+      <c r="Q5" s="305"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11729,11 +11729,11 @@
       <c r="Q27" s="182"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="294" t="s">
+      <c r="A28" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="295"/>
-      <c r="C28" s="296"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="300"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12467,10 +12467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="308" t="s">
+      <c r="B1" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="308"/>
+      <c r="C1" s="312"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="220" t="s">
